--- a/Plan de Trabajo/Analisas_de_Riesgos.xlsx
+++ b/Plan de Trabajo/Analisas_de_Riesgos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaloh\Desktop\U\Ingenieria de Software\Proyecto Semestral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaloh\Desktop\U\Ingenieria de Software\Proyecto Semestral\Plan de Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C9B667-CF2E-421D-9266-E1E85DCF7397}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0FC3A9-A757-4C71-9BB8-C65AB556CF5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ECCD4AB8-E9C7-4A68-AC5E-A4BAEADA1CF4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Riesgo</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Efecto</t>
   </si>
   <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>Estrategia</t>
   </si>
   <si>
@@ -78,13 +75,103 @@
     <t>Las herramientas que escogimos para implementar el proyecto no son las adecuadas</t>
   </si>
   <si>
-    <t>Agregamos mucha 'ornamentación' innecesaria</t>
-  </si>
-  <si>
     <t>No logramos que el videochat funcione correctamente</t>
   </si>
   <si>
     <t>Algúna actividad toma más tiempo de lo estimado</t>
+  </si>
+  <si>
+    <t>Se nos olvida realizar alguna actividad</t>
+  </si>
+  <si>
+    <t>Alguna computadora se arruina</t>
+  </si>
+  <si>
+    <t>Perdemos el código fuente de alguna página</t>
+  </si>
+  <si>
+    <t>Borramos por accidente algún archivo importante</t>
+  </si>
+  <si>
+    <t>Alguna página está mal implementada (ya sea frontend o backend)</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Muy baja</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Algún miembro se vuelve incapaz de implementar una parte del proyecto</t>
+  </si>
+  <si>
+    <t>Serio</t>
+  </si>
+  <si>
+    <t>Catastrófico</t>
+  </si>
+  <si>
+    <t>Tolerable</t>
+  </si>
+  <si>
+    <t>Rating (Siendo 1 el más importante)</t>
+  </si>
+  <si>
+    <t>Adelantar actividades si es posible</t>
+  </si>
+  <si>
+    <t>Distribuir bien el tiempo a lo largo del período de trabajo establecido</t>
+  </si>
+  <si>
+    <t>Poner recordatorios 3 días y 1 día antes de la entrega</t>
+  </si>
+  <si>
+    <t>Poner recordatorios 1 día antes y tener dinero extra para pedir un Uber</t>
+  </si>
+  <si>
+    <t>Realizar Unit y System Testing una vez terminado el módulo</t>
+  </si>
+  <si>
+    <t>Realizar las actividades fundamentales descritas en la calendarización</t>
+  </si>
+  <si>
+    <t>Perder mucho tiempo agregando mucha 'ornamentación' innecesaria</t>
+  </si>
+  <si>
+    <t>Consultar con el Ingeniero Ronald y pedir su aprobación</t>
+  </si>
+  <si>
+    <t>Realizar pequeñas pruebas que verifiquen que dichas herramientas cumplan con su propósito</t>
+  </si>
+  <si>
+    <t>Enfocar toda la atención en ese módulo si se dispone de tiempo</t>
+  </si>
+  <si>
+    <t>Adelantar actividades potencialmente laboriosas</t>
+  </si>
+  <si>
+    <t>Revisar frecuentemente la calendarización</t>
+  </si>
+  <si>
+    <t>Trabajar en las computadoras del laboratorio de la Universidad</t>
+  </si>
+  <si>
+    <t>Hacer Backup del código en Github</t>
+  </si>
+  <si>
+    <t>Realizar Backup de dichos archivos en Github</t>
+  </si>
+  <si>
+    <t>Intercambiar actividades entre los miembros</t>
+  </si>
+  <si>
+    <t>Seguir los diseños prestablecidos de dicha página</t>
   </si>
 </sst>
 </file>
@@ -108,15 +195,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,19 +217,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDFFE5"/>
+      <color rgb="FFFFB7B7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -445,15 +695,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856F7327-95AC-4537-AB6E-88590ECCF523}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -467,78 +721,353 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D20">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
